--- a/ORG_EPISODE.xlsx
+++ b/ORG_EPISODE.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE2811F-FE84-429B-A8DE-B0A1E737DAC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A6B1B2-F70A-4649-AE16-8666509EB0C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>ORG_EPI_PK</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>ตอน</t>
+  </si>
+  <si>
+    <t>ORG_EPI_IDENOLD</t>
+  </si>
+  <si>
+    <t>ORG_EPI_IDENNEW</t>
+  </si>
+  <si>
+    <t>ORG_EPI_STATUS</t>
   </si>
 </sst>
 </file>
@@ -523,19 +532,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="31.26953125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="11" width="31.28515625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +554,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>27001</v>
       </c>
@@ -557,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>27002</v>
       </c>
@@ -568,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>27003</v>
       </c>
@@ -579,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>27004</v>
       </c>
@@ -590,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>27005</v>
       </c>
@@ -601,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>27006</v>
       </c>
@@ -612,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>27007</v>
       </c>
@@ -623,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>27008</v>
       </c>
@@ -634,7 +652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>27009</v>
       </c>
@@ -645,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>27010</v>
       </c>
@@ -656,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>27011</v>
       </c>
@@ -667,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>27012</v>
       </c>
@@ -678,7 +696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>27013</v>
       </c>
@@ -689,7 +707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>27014</v>
       </c>
@@ -700,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>27015</v>
       </c>
@@ -711,7 +729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>27016</v>
       </c>
@@ -722,7 +740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>27017</v>
       </c>
@@ -733,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>27018</v>
       </c>
@@ -744,7 +762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>27019</v>
       </c>
@@ -755,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>27020</v>
       </c>
@@ -766,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>27021</v>
       </c>
@@ -777,7 +795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>27022</v>
       </c>
@@ -788,7 +806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>27023</v>
       </c>
@@ -799,7 +817,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>27024</v>
       </c>
@@ -810,7 +828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27025</v>
       </c>
@@ -821,7 +839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27026</v>
       </c>
@@ -832,7 +850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27027</v>
       </c>
@@ -843,7 +861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27028</v>
       </c>
@@ -854,7 +872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27029</v>
       </c>
@@ -865,7 +883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27030</v>
       </c>
@@ -876,7 +894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>27031</v>
       </c>
@@ -887,7 +905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>27032</v>
       </c>
@@ -898,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>27033</v>
       </c>
@@ -909,7 +927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>27034</v>
       </c>
@@ -920,7 +938,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>27035</v>
       </c>
@@ -931,7 +949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>27036</v>
       </c>
@@ -942,7 +960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>27037</v>
       </c>
@@ -953,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>27038</v>
       </c>
@@ -964,7 +982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>27039</v>
       </c>
@@ -975,7 +993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>27040</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>27041</v>
       </c>
@@ -997,7 +1015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>27042</v>
       </c>
@@ -1008,7 +1026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>27043</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>27044</v>
       </c>
@@ -1030,7 +1048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>27045</v>
       </c>
@@ -1041,7 +1059,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>27046</v>
       </c>
@@ -1052,7 +1070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>27047</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>27048</v>
       </c>
@@ -1074,7 +1092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>27049</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>27050</v>
       </c>
@@ -1096,7 +1114,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>27051</v>
       </c>
@@ -1107,7 +1125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>27052</v>
       </c>
@@ -1118,7 +1136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>27053</v>
       </c>
@@ -1129,7 +1147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>27054</v>
       </c>
@@ -1140,7 +1158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>27055</v>
       </c>
@@ -1151,7 +1169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>27056</v>
       </c>
@@ -1162,7 +1180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>27057</v>
       </c>
@@ -1173,7 +1191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>27058</v>
       </c>
@@ -1184,7 +1202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27059</v>
       </c>
@@ -1195,7 +1213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>27060</v>
       </c>
@@ -1206,7 +1224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>27061</v>
       </c>
@@ -1217,7 +1235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>27062</v>
       </c>
@@ -1228,7 +1246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>27063</v>
       </c>
@@ -1239,7 +1257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>27064</v>
       </c>
@@ -1250,7 +1268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>27065</v>
       </c>
@@ -1261,7 +1279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>27066</v>
       </c>
